--- a/Table Rates/XOSPiritus.xlsx
+++ b/Table Rates/XOSPiritus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11625" yWindow="2340" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="11625" yWindow="2340" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="AllStates" sheetId="1" r:id="rId1"/>
@@ -580,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G721"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -638,7 +638,7 @@
       </c>
       <c r="G2">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
       </c>
       <c r="G3">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
       </c>
       <c r="G4">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
       </c>
       <c r="G5">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
       </c>
       <c r="G6">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
       </c>
       <c r="G7">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -776,7 +776,7 @@
       </c>
       <c r="G8">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
       </c>
       <c r="G9">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
       </c>
       <c r="G10">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
       </c>
       <c r="G11">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
       </c>
       <c r="G12">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
       </c>
       <c r="G13">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -914,7 +914,7 @@
       </c>
       <c r="G14">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
       </c>
       <c r="G15">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -960,7 +960,7 @@
       </c>
       <c r="G16">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
       </c>
       <c r="G17">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="G18">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="G19">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="G20">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="G21">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="G22">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="G23">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="G24">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G25">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="G26">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="G27">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G28">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="G29">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="G30">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="G31">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="G32">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="G33">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="G34">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="G35">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="G36">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="G37">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="G38">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G39">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="G40">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="G41">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="G42">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G43">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="G44">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G45">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="G46">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="G47">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="G48">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="G49">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="G50">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="G51">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="G52">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="G53">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="G54">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="G55">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="G56">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="G57">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="G58">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="G59">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="G60">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="G61">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="G62">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="G63">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="G64">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="G65">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="G66">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="G67">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="G68">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="G69">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G70">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="G71">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="G72">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G73">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="G74">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="G75">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="G76">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="G77">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="G78">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="G79">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="G80">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="G81">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="G82">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="G83">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="G84">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="G85">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="G86">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="G87">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="G88">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="G89">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="G90">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="G91">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="G92">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="G93">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="G94">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="G95">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="G96">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="G97">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="G98">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="G99">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="G100">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="G101">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="G102">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="G103">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="G104">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="G105">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="G106">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="G107">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="G108">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="G109">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3122,7 +3122,7 @@
       </c>
       <c r="G110">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="G111">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="G112">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="G113">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="G114">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="G115">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="G116">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="G117">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="G118">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="G119">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="G120">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="G121">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="G122">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="G123">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="G124">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="G125">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="G126">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="G127">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="G128">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="G129">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="G130">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="G131">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="G132">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="G133">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="G134">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="G135">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="G136">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="G137">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="G138">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="G139">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="G140">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="G141">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="G142">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="G143">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="G144">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="G145">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="G146">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="G147">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="G148">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="G149">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="G150">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="G151">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="G152">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="G153">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="G154">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="G155">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="G156">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="G157">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="G158">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="G159">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="G160">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="G161">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="G162">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="G163">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="G164">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="G165">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="G166">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="G167">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="G168">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="G169">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="G170">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="G171">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="G172">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="G173">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="G174">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="G175">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="G176">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="G177">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="G178">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="G179">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="G180">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="G181">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="G182">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="G183">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -4824,7 +4824,7 @@
       </c>
       <c r="G184">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="G185">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="G186">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="G187">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="G188">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="G189">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="G190">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -4985,7 +4985,7 @@
       </c>
       <c r="G191">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="G192">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="G193">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="G194">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5077,7 +5077,7 @@
       </c>
       <c r="G195">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="G196">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="G197">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="G198">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="G199">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="G200">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="G201">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="G202">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="G203">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="G204">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="G205">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="G206">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="G207">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="G208">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="G209">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="G210">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="G211">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -5468,7 +5468,7 @@
       </c>
       <c r="G212">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="G213">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -5514,7 +5514,7 @@
       </c>
       <c r="G214">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="G215">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="G216">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="G217">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="G218">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="G219">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="G220">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="G221">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="G222">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="G223">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="G224">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="G225">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="G226">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="G227">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="G228">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="G229">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="G230">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -5905,7 +5905,7 @@
       </c>
       <c r="G231">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -5928,7 +5928,7 @@
       </c>
       <c r="G232">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="G233">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="G234">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="G235">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -6020,7 +6020,7 @@
       </c>
       <c r="G236">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="G237">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="G238">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="G239">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="G240">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="G241">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="G242">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -6181,7 +6181,7 @@
       </c>
       <c r="G243">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="G244">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -6227,7 +6227,7 @@
       </c>
       <c r="G245">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -6250,7 +6250,7 @@
       </c>
       <c r="G246">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="G247">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="G248">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="G249">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="G250">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="G251">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="G252">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="G253">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="G254">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="G255">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -6480,7 +6480,7 @@
       </c>
       <c r="G256">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="G257">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="G258">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="G259">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="G260">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="G261">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -6618,7 +6618,7 @@
       </c>
       <c r="G262">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="G263">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="G264">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="G265">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -6710,7 +6710,7 @@
       </c>
       <c r="G266">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="G267">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="G268">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="G269">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -6802,7 +6802,7 @@
       </c>
       <c r="G270">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="G271">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="G272">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="G273">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="G274">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="G275">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="G276">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="G277">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="G278">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="G279">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -7032,7 +7032,7 @@
       </c>
       <c r="G280">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="G281">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="G282">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="G283">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="G284">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="G285">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="G286">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="G287">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="G288">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="G289">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="G290">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -7285,7 +7285,7 @@
       </c>
       <c r="G291">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -7308,7 +7308,7 @@
       </c>
       <c r="G292">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="G293">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -7354,7 +7354,7 @@
       </c>
       <c r="G294">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="G295">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="G296">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="G297">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="G298">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="G299">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="G300">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -7515,7 +7515,7 @@
       </c>
       <c r="G301">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="G302">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="G303">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="G304">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -7607,7 +7607,7 @@
       </c>
       <c r="G305">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -7630,7 +7630,7 @@
       </c>
       <c r="G306">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="G307">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="G308">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="G309">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="G310">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="G311">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="G312">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="G313">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="G314">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="G315">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="G316">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="G317">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -7906,7 +7906,7 @@
       </c>
       <c r="G318">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -7929,7 +7929,7 @@
       </c>
       <c r="G319">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="G320">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="G321">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="G322">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="G323">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="G324">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="G325">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -8090,7 +8090,7 @@
       </c>
       <c r="G326">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -8113,7 +8113,7 @@
       </c>
       <c r="G327">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="G328">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="G329">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -8182,7 +8182,7 @@
       </c>
       <c r="G330">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -8205,7 +8205,7 @@
       </c>
       <c r="G331">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="G332">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="G333">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="G334">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -8297,7 +8297,7 @@
       </c>
       <c r="G335">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="G336">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="G337">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="G338">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="G339">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -8412,7 +8412,7 @@
       </c>
       <c r="G340">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="G341">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -8458,7 +8458,7 @@
       </c>
       <c r="G342">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="G343">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="G344">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -8527,7 +8527,7 @@
       </c>
       <c r="G345">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -8550,7 +8550,7 @@
       </c>
       <c r="G346">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -8573,7 +8573,7 @@
       </c>
       <c r="G347">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -8596,7 +8596,7 @@
       </c>
       <c r="G348">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="G349">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
@@ -8642,7 +8642,7 @@
       </c>
       <c r="G350">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="G351">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
@@ -8688,7 +8688,7 @@
       </c>
       <c r="G352">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="G353">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="G354">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="G355">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="G356">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="G357">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="G358">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="G359">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="G360">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="G361">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -8918,7 +8918,7 @@
       </c>
       <c r="G362">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="G363">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="G364">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="G365">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -9010,7 +9010,7 @@
       </c>
       <c r="G366">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="G367">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="G368">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="G369">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -9102,7 +9102,7 @@
       </c>
       <c r="G370">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -9125,7 +9125,7 @@
       </c>
       <c r="G371">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="G372">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="G373">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="G374">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="G375">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="G376">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="G377">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="G378">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
@@ -9309,7 +9309,7 @@
       </c>
       <c r="G379">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
@@ -9332,7 +9332,7 @@
       </c>
       <c r="G380">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
@@ -9355,7 +9355,7 @@
       </c>
       <c r="G381">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
@@ -9378,7 +9378,7 @@
       </c>
       <c r="G382">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="G383">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
@@ -9424,7 +9424,7 @@
       </c>
       <c r="G384">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
@@ -9447,7 +9447,7 @@
       </c>
       <c r="G385">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
@@ -9470,7 +9470,7 @@
       </c>
       <c r="G386">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="G387">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -9516,7 +9516,7 @@
       </c>
       <c r="G388">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -9539,7 +9539,7 @@
       </c>
       <c r="G389">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="G390">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
@@ -9585,7 +9585,7 @@
       </c>
       <c r="G391">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
@@ -9608,7 +9608,7 @@
       </c>
       <c r="G392">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="G393">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -9654,7 +9654,7 @@
       </c>
       <c r="G394">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
@@ -9677,7 +9677,7 @@
       </c>
       <c r="G395">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
@@ -9700,7 +9700,7 @@
       </c>
       <c r="G396">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
@@ -9723,7 +9723,7 @@
       </c>
       <c r="G397">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
@@ -9746,7 +9746,7 @@
       </c>
       <c r="G398">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="G399">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="G400">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -9815,7 +9815,7 @@
       </c>
       <c r="G401">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
@@ -9838,7 +9838,7 @@
       </c>
       <c r="G402">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="G403">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="G404">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="G405">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -9930,7 +9930,7 @@
       </c>
       <c r="G406">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
@@ -9953,7 +9953,7 @@
       </c>
       <c r="G407">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="G408">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
@@ -9999,7 +9999,7 @@
       </c>
       <c r="G409">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
@@ -10022,7 +10022,7 @@
       </c>
       <c r="G410">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="G411">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="G412">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="G413">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="G414">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -10137,7 +10137,7 @@
       </c>
       <c r="G415">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="G416">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="G417">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -10206,7 +10206,7 @@
       </c>
       <c r="G418">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
@@ -10229,7 +10229,7 @@
       </c>
       <c r="G419">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="G420">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="G421">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
@@ -10298,7 +10298,7 @@
       </c>
       <c r="G422">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
@@ -10321,7 +10321,7 @@
       </c>
       <c r="G423">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="G424">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -10367,7 +10367,7 @@
       </c>
       <c r="G425">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -10390,7 +10390,7 @@
       </c>
       <c r="G426">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="G427">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
@@ -10436,7 +10436,7 @@
       </c>
       <c r="G428">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="G429">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -10482,7 +10482,7 @@
       </c>
       <c r="G430">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -10505,7 +10505,7 @@
       </c>
       <c r="G431">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -10528,7 +10528,7 @@
       </c>
       <c r="G432">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="G433">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
@@ -10574,7 +10574,7 @@
       </c>
       <c r="G434">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
@@ -10597,7 +10597,7 @@
       </c>
       <c r="G435">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
@@ -10620,7 +10620,7 @@
       </c>
       <c r="G436">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="G437">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
@@ -10666,7 +10666,7 @@
       </c>
       <c r="G438">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="G439">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
@@ -10712,7 +10712,7 @@
       </c>
       <c r="G440">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
@@ -10735,7 +10735,7 @@
       </c>
       <c r="G441">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
@@ -10758,7 +10758,7 @@
       </c>
       <c r="G442">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="G443">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
@@ -10804,7 +10804,7 @@
       </c>
       <c r="G444">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
@@ -10827,7 +10827,7 @@
       </c>
       <c r="G445">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
@@ -10850,7 +10850,7 @@
       </c>
       <c r="G446">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="G447">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
@@ -10896,7 +10896,7 @@
       </c>
       <c r="G448">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="G449">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
@@ -10942,7 +10942,7 @@
       </c>
       <c r="G450">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="G451">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
@@ -10988,7 +10988,7 @@
       </c>
       <c r="G452">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="G453">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
@@ -11034,7 +11034,7 @@
       </c>
       <c r="G454">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="G455">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="G456">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
@@ -11103,7 +11103,7 @@
       </c>
       <c r="G457">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="G458">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
@@ -11149,7 +11149,7 @@
       </c>
       <c r="G459">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="G460">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="G461">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
@@ -11218,7 +11218,7 @@
       </c>
       <c r="G462">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="G463">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
@@ -11264,7 +11264,7 @@
       </c>
       <c r="G464">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
@@ -11287,7 +11287,7 @@
       </c>
       <c r="G465">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
@@ -11310,7 +11310,7 @@
       </c>
       <c r="G466">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
@@ -11333,7 +11333,7 @@
       </c>
       <c r="G467">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="G468">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="G469">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
@@ -11402,7 +11402,7 @@
       </c>
       <c r="G470">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
@@ -11425,7 +11425,7 @@
       </c>
       <c r="G471">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
@@ -11448,7 +11448,7 @@
       </c>
       <c r="G472">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="G473">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="G474">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
@@ -11517,7 +11517,7 @@
       </c>
       <c r="G475">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
@@ -11540,7 +11540,7 @@
       </c>
       <c r="G476">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="G477">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="G478">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
@@ -11609,7 +11609,7 @@
       </c>
       <c r="G479">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
@@ -11632,7 +11632,7 @@
       </c>
       <c r="G480">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
@@ -11655,7 +11655,7 @@
       </c>
       <c r="G481">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
@@ -11678,7 +11678,7 @@
       </c>
       <c r="G482">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
@@ -11701,7 +11701,7 @@
       </c>
       <c r="G483">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
@@ -11724,7 +11724,7 @@
       </c>
       <c r="G484">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="G485">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
@@ -11770,7 +11770,7 @@
       </c>
       <c r="G486">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
@@ -11793,7 +11793,7 @@
       </c>
       <c r="G487">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
@@ -11816,7 +11816,7 @@
       </c>
       <c r="G488">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
@@ -11839,7 +11839,7 @@
       </c>
       <c r="G489">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
@@ -11862,7 +11862,7 @@
       </c>
       <c r="G490">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="G491">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="G492">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
@@ -11931,7 +11931,7 @@
       </c>
       <c r="G493">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
@@ -11954,7 +11954,7 @@
       </c>
       <c r="G494">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="G495">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
@@ -12000,7 +12000,7 @@
       </c>
       <c r="G496">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
@@ -12023,7 +12023,7 @@
       </c>
       <c r="G497">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
@@ -12046,7 +12046,7 @@
       </c>
       <c r="G498">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="G499">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
@@ -12092,7 +12092,7 @@
       </c>
       <c r="G500">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
@@ -12115,7 +12115,7 @@
       </c>
       <c r="G501">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="G502">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
@@ -12161,7 +12161,7 @@
       </c>
       <c r="G503">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="G504">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
@@ -12207,7 +12207,7 @@
       </c>
       <c r="G505">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="G506">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
@@ -12253,7 +12253,7 @@
       </c>
       <c r="G507">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
@@ -12276,7 +12276,7 @@
       </c>
       <c r="G508">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="G509">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
@@ -12322,7 +12322,7 @@
       </c>
       <c r="G510">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
@@ -12345,7 +12345,7 @@
       </c>
       <c r="G511">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="G512">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
@@ -12391,7 +12391,7 @@
       </c>
       <c r="G513">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
@@ -12414,7 +12414,7 @@
       </c>
       <c r="G514">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
@@ -12437,7 +12437,7 @@
       </c>
       <c r="G515">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="G516">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="G517">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
@@ -12506,7 +12506,7 @@
       </c>
       <c r="G518">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
@@ -12529,7 +12529,7 @@
       </c>
       <c r="G519">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
@@ -12552,7 +12552,7 @@
       </c>
       <c r="G520">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
@@ -12575,7 +12575,7 @@
       </c>
       <c r="G521">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
@@ -12598,7 +12598,7 @@
       </c>
       <c r="G522">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="G523">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
@@ -12644,7 +12644,7 @@
       </c>
       <c r="G524">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="G525">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="G526">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
@@ -12713,7 +12713,7 @@
       </c>
       <c r="G527">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
@@ -12736,7 +12736,7 @@
       </c>
       <c r="G528">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
@@ -12759,7 +12759,7 @@
       </c>
       <c r="G529">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
@@ -12782,7 +12782,7 @@
       </c>
       <c r="G530">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
@@ -12805,7 +12805,7 @@
       </c>
       <c r="G531">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
@@ -12828,7 +12828,7 @@
       </c>
       <c r="G532">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
@@ -12851,7 +12851,7 @@
       </c>
       <c r="G533">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
@@ -12874,7 +12874,7 @@
       </c>
       <c r="G534">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
@@ -12897,7 +12897,7 @@
       </c>
       <c r="G535">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="G536">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="G537">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
@@ -12966,7 +12966,7 @@
       </c>
       <c r="G538">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
@@ -12989,7 +12989,7 @@
       </c>
       <c r="G539">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
@@ -13012,7 +13012,7 @@
       </c>
       <c r="G540">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
@@ -13035,7 +13035,7 @@
       </c>
       <c r="G541">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
@@ -13058,7 +13058,7 @@
       </c>
       <c r="G542">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
@@ -13081,7 +13081,7 @@
       </c>
       <c r="G543">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
@@ -13104,7 +13104,7 @@
       </c>
       <c r="G544">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
@@ -13127,7 +13127,7 @@
       </c>
       <c r="G545">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
@@ -13150,7 +13150,7 @@
       </c>
       <c r="G546">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="G547">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="G548">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
@@ -13219,7 +13219,7 @@
       </c>
       <c r="G549">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
@@ -13242,7 +13242,7 @@
       </c>
       <c r="G550">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
@@ -13265,7 +13265,7 @@
       </c>
       <c r="G551">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="G552">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="G553">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
@@ -13334,7 +13334,7 @@
       </c>
       <c r="G554">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
@@ -13357,7 +13357,7 @@
       </c>
       <c r="G555">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
@@ -13380,7 +13380,7 @@
       </c>
       <c r="G556">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
@@ -13403,7 +13403,7 @@
       </c>
       <c r="G557">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
@@ -13426,7 +13426,7 @@
       </c>
       <c r="G558">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
@@ -13449,7 +13449,7 @@
       </c>
       <c r="G559">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="G560">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="G561">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
@@ -13518,7 +13518,7 @@
       </c>
       <c r="G562">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
@@ -13541,7 +13541,7 @@
       </c>
       <c r="G563">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="G564">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
@@ -13587,7 +13587,7 @@
       </c>
       <c r="G565">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
@@ -13610,7 +13610,7 @@
       </c>
       <c r="G566">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
@@ -13633,7 +13633,7 @@
       </c>
       <c r="G567">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="G568">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
@@ -13679,7 +13679,7 @@
       </c>
       <c r="G569">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
@@ -13702,7 +13702,7 @@
       </c>
       <c r="G570">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
@@ -13725,7 +13725,7 @@
       </c>
       <c r="G571">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
@@ -13748,7 +13748,7 @@
       </c>
       <c r="G572">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
@@ -13771,7 +13771,7 @@
       </c>
       <c r="G573">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
@@ -13794,7 +13794,7 @@
       </c>
       <c r="G574">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
@@ -13817,7 +13817,7 @@
       </c>
       <c r="G575">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
@@ -13840,7 +13840,7 @@
       </c>
       <c r="G576">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="G577">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
@@ -13886,7 +13886,7 @@
       </c>
       <c r="G578">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
@@ -13909,7 +13909,7 @@
       </c>
       <c r="G579">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
@@ -13932,7 +13932,7 @@
       </c>
       <c r="G580">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="G581">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
@@ -13978,7 +13978,7 @@
       </c>
       <c r="G582">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
@@ -14001,7 +14001,7 @@
       </c>
       <c r="G583">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
@@ -14024,7 +14024,7 @@
       </c>
       <c r="G584">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="G585">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
@@ -14070,7 +14070,7 @@
       </c>
       <c r="G586">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
@@ -14093,7 +14093,7 @@
       </c>
       <c r="G587">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
@@ -14116,7 +14116,7 @@
       </c>
       <c r="G588">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
@@ -14139,7 +14139,7 @@
       </c>
       <c r="G589">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
@@ -14162,7 +14162,7 @@
       </c>
       <c r="G590">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
@@ -14185,7 +14185,7 @@
       </c>
       <c r="G591">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
@@ -14208,7 +14208,7 @@
       </c>
       <c r="G592">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="G593">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="G594">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
@@ -14277,7 +14277,7 @@
       </c>
       <c r="G595">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
@@ -14300,7 +14300,7 @@
       </c>
       <c r="G596">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
@@ -14323,7 +14323,7 @@
       </c>
       <c r="G597">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
@@ -14346,7 +14346,7 @@
       </c>
       <c r="G598">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
@@ -14369,7 +14369,7 @@
       </c>
       <c r="G599">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="G600">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
@@ -14415,7 +14415,7 @@
       </c>
       <c r="G601">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
@@ -14438,7 +14438,7 @@
       </c>
       <c r="G602">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
@@ -14461,7 +14461,7 @@
       </c>
       <c r="G603">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
@@ -14484,7 +14484,7 @@
       </c>
       <c r="G604">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
@@ -14507,7 +14507,7 @@
       </c>
       <c r="G605">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
@@ -14530,7 +14530,7 @@
       </c>
       <c r="G606">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="G607">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
@@ -14576,7 +14576,7 @@
       </c>
       <c r="G608">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
@@ -14599,7 +14599,7 @@
       </c>
       <c r="G609">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
@@ -14622,7 +14622,7 @@
       </c>
       <c r="G610">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
@@ -14645,7 +14645,7 @@
       </c>
       <c r="G611">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
@@ -14668,7 +14668,7 @@
       </c>
       <c r="G612">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
@@ -14691,7 +14691,7 @@
       </c>
       <c r="G613">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
@@ -14714,7 +14714,7 @@
       </c>
       <c r="G614">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
@@ -14737,7 +14737,7 @@
       </c>
       <c r="G615">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
@@ -14760,7 +14760,7 @@
       </c>
       <c r="G616">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
@@ -14783,7 +14783,7 @@
       </c>
       <c r="G617">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="G618">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
@@ -14829,7 +14829,7 @@
       </c>
       <c r="G619">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
@@ -14852,7 +14852,7 @@
       </c>
       <c r="G620">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
@@ -14875,7 +14875,7 @@
       </c>
       <c r="G621">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
@@ -14898,7 +14898,7 @@
       </c>
       <c r="G622">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
@@ -14921,7 +14921,7 @@
       </c>
       <c r="G623">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
@@ -14944,7 +14944,7 @@
       </c>
       <c r="G624">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
@@ -14967,7 +14967,7 @@
       </c>
       <c r="G625">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
@@ -14990,7 +14990,7 @@
       </c>
       <c r="G626">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
@@ -15013,7 +15013,7 @@
       </c>
       <c r="G627">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="G628">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
@@ -15059,7 +15059,7 @@
       </c>
       <c r="G629">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
@@ -15082,7 +15082,7 @@
       </c>
       <c r="G630">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
@@ -15105,7 +15105,7 @@
       </c>
       <c r="G631">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
@@ -15128,7 +15128,7 @@
       </c>
       <c r="G632">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
@@ -15151,7 +15151,7 @@
       </c>
       <c r="G633">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
@@ -15174,7 +15174,7 @@
       </c>
       <c r="G634">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
@@ -15197,7 +15197,7 @@
       </c>
       <c r="G635">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
@@ -15220,7 +15220,7 @@
       </c>
       <c r="G636">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
@@ -15243,7 +15243,7 @@
       </c>
       <c r="G637">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
@@ -15266,7 +15266,7 @@
       </c>
       <c r="G638">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
@@ -15289,7 +15289,7 @@
       </c>
       <c r="G639">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
@@ -15312,7 +15312,7 @@
       </c>
       <c r="G640">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
@@ -15335,7 +15335,7 @@
       </c>
       <c r="G641">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
@@ -15358,7 +15358,7 @@
       </c>
       <c r="G642">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
@@ -15381,7 +15381,7 @@
       </c>
       <c r="G643">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
@@ -15404,7 +15404,7 @@
       </c>
       <c r="G644">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
@@ -15427,7 +15427,7 @@
       </c>
       <c r="G645">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
@@ -15450,7 +15450,7 @@
       </c>
       <c r="G646">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
@@ -15473,7 +15473,7 @@
       </c>
       <c r="G647">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="G648">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
@@ -15519,7 +15519,7 @@
       </c>
       <c r="G649">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
@@ -15542,7 +15542,7 @@
       </c>
       <c r="G650">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
@@ -15565,7 +15565,7 @@
       </c>
       <c r="G651">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="G652">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
@@ -15611,7 +15611,7 @@
       </c>
       <c r="G653">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
@@ -15634,7 +15634,7 @@
       </c>
       <c r="G654">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
@@ -15657,7 +15657,7 @@
       </c>
       <c r="G655">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
@@ -15680,7 +15680,7 @@
       </c>
       <c r="G656">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="G657">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
@@ -15726,7 +15726,7 @@
       </c>
       <c r="G658">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
@@ -15749,7 +15749,7 @@
       </c>
       <c r="G659">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
@@ -15772,7 +15772,7 @@
       </c>
       <c r="G660">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
@@ -15795,7 +15795,7 @@
       </c>
       <c r="G661">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="G662">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
@@ -15841,7 +15841,7 @@
       </c>
       <c r="G663">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
@@ -15864,7 +15864,7 @@
       </c>
       <c r="G664">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
@@ -15887,7 +15887,7 @@
       </c>
       <c r="G665">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
@@ -15910,7 +15910,7 @@
       </c>
       <c r="G666">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
@@ -15933,7 +15933,7 @@
       </c>
       <c r="G667">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
@@ -15956,7 +15956,7 @@
       </c>
       <c r="G668">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="G669">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
@@ -16002,7 +16002,7 @@
       </c>
       <c r="G670">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
@@ -16025,7 +16025,7 @@
       </c>
       <c r="G671">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
@@ -16048,7 +16048,7 @@
       </c>
       <c r="G672">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
@@ -16071,7 +16071,7 @@
       </c>
       <c r="G673">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
@@ -16094,7 +16094,7 @@
       </c>
       <c r="G674">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
@@ -16117,7 +16117,7 @@
       </c>
       <c r="G675">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
@@ -16140,7 +16140,7 @@
       </c>
       <c r="G676">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
@@ -16163,7 +16163,7 @@
       </c>
       <c r="G677">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
@@ -16186,7 +16186,7 @@
       </c>
       <c r="G678">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
@@ -16209,7 +16209,7 @@
       </c>
       <c r="G679">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
@@ -16232,7 +16232,7 @@
       </c>
       <c r="G680">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
@@ -16255,7 +16255,7 @@
       </c>
       <c r="G681">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
@@ -16278,7 +16278,7 @@
       </c>
       <c r="G682">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="G683">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
@@ -16324,7 +16324,7 @@
       </c>
       <c r="G684">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
@@ -16347,7 +16347,7 @@
       </c>
       <c r="G685">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
@@ -16370,7 +16370,7 @@
       </c>
       <c r="G686">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
@@ -16393,7 +16393,7 @@
       </c>
       <c r="G687">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
@@ -16416,7 +16416,7 @@
       </c>
       <c r="G688">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
@@ -16439,7 +16439,7 @@
       </c>
       <c r="G689">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
@@ -16462,7 +16462,7 @@
       </c>
       <c r="G690">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
@@ -16485,7 +16485,7 @@
       </c>
       <c r="G691">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
@@ -16508,7 +16508,7 @@
       </c>
       <c r="G692">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
@@ -16531,7 +16531,7 @@
       </c>
       <c r="G693">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
@@ -16554,7 +16554,7 @@
       </c>
       <c r="G694">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
@@ -16577,7 +16577,7 @@
       </c>
       <c r="G695">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="G696">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
@@ -16623,7 +16623,7 @@
       </c>
       <c r="G697">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
@@ -16646,7 +16646,7 @@
       </c>
       <c r="G698">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
@@ -16669,7 +16669,7 @@
       </c>
       <c r="G699">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="G700">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
@@ -16715,7 +16715,7 @@
       </c>
       <c r="G701">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
@@ -16738,7 +16738,7 @@
       </c>
       <c r="G702">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="G703">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
@@ -16784,7 +16784,7 @@
       </c>
       <c r="G704">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="G705">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
@@ -16830,7 +16830,7 @@
       </c>
       <c r="G706">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.25">
@@ -16853,7 +16853,7 @@
       </c>
       <c r="G707">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
@@ -16876,7 +16876,7 @@
       </c>
       <c r="G708">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
@@ -16899,7 +16899,7 @@
       </c>
       <c r="G709">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
@@ -16922,7 +16922,7 @@
       </c>
       <c r="G710">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
@@ -16945,7 +16945,7 @@
       </c>
       <c r="G711">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="G712">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
@@ -16991,7 +16991,7 @@
       </c>
       <c r="G713">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
@@ -17014,7 +17014,7 @@
       </c>
       <c r="G714">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
@@ -17037,7 +17037,7 @@
       </c>
       <c r="G715">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
@@ -17060,7 +17060,7 @@
       </c>
       <c r="G716">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
@@ -17083,7 +17083,7 @@
       </c>
       <c r="G717">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
@@ -17106,7 +17106,7 @@
       </c>
       <c r="G718">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.25">
@@ -17129,7 +17129,7 @@
       </c>
       <c r="G719">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
@@ -17152,7 +17152,7 @@
       </c>
       <c r="G720">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.25">
@@ -17175,7 +17175,7 @@
       </c>
       <c r="G721">
         <f>IF(ROW()-1&gt;(COUNTA(RegionStates!A:A)*COUNTA(Prices!A:A)),"",INDEX(Prices!B:B,MOD(ROW()-2,COUNTA(Prices!B:B))+1))</f>
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
   </sheetData>
@@ -17395,7 +17395,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17407,7 +17409,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>14.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -17415,7 +17417,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>12.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -17423,7 +17425,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>9.25</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -17431,7 +17433,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>6.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -17439,7 +17441,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>3.55</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -17447,7 +17449,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -17455,7 +17457,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -17463,7 +17465,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -17471,7 +17473,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -17479,7 +17481,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -17487,7 +17489,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -17495,7 +17497,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -17503,7 +17505,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -17511,7 +17513,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -17519,7 +17521,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -17527,7 +17529,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -17535,7 +17537,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -17543,7 +17545,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -17551,7 +17553,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -17559,7 +17561,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>57.8</v>
       </c>
     </row>
   </sheetData>
